--- a/Data/data_MIPAR_FFT.xlsx
+++ b/Data/data_MIPAR_FFT.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -384,6 +384,26 @@
           <t>Diameter</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Alpha area</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Alpha fraction</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Beta area</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Beta fraction</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -400,6 +420,18 @@
       </c>
       <c r="F2" t="n">
         <v>188.5971908569336</v>
+      </c>
+      <c r="G2" t="n">
+        <v>399558</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6745678412066511</v>
+      </c>
+      <c r="I2" t="n">
+        <v>192759</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.3254321587933489</v>
       </c>
     </row>
     <row r="3">

--- a/Data/data_MIPAR_FFT.xlsx
+++ b/Data/data_MIPAR_FFT.xlsx
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -412,6 +480,9 @@
       <c r="B2" t="n">
         <v>11202</v>
       </c>
+      <c r="C2" t="n">
+        <v>1086.004175901413</v>
+      </c>
       <c r="D2" t="n">
         <v>176.1343383789062</v>
       </c>
@@ -441,6 +512,9 @@
       <c r="B3" t="n">
         <v>1393</v>
       </c>
+      <c r="C3" t="n">
+        <v>214.3675310611725</v>
+      </c>
       <c r="D3" t="n">
         <v>28.91626739501953</v>
       </c>
@@ -458,6 +532,9 @@
       <c r="B4" t="n">
         <v>9727</v>
       </c>
+      <c r="C4" t="n">
+        <v>909.3178842067719</v>
+      </c>
       <c r="D4" t="n">
         <v>55.96412658691406</v>
       </c>
@@ -475,6 +552,9 @@
       <c r="B5" t="n">
         <v>5611</v>
       </c>
+      <c r="C5" t="n">
+        <v>675.5533845424652</v>
+      </c>
       <c r="D5" t="n">
         <v>78.82492065429688</v>
       </c>
@@ -492,6 +572,9 @@
       <c r="B6" t="n">
         <v>2151</v>
       </c>
+      <c r="C6" t="n">
+        <v>279.4213538169861</v>
+      </c>
       <c r="D6" t="n">
         <v>35.88682556152344</v>
       </c>
@@ -509,6 +592,9 @@
       <c r="B7" t="n">
         <v>4176</v>
       </c>
+      <c r="C7" t="n">
+        <v>606.6833273172379</v>
+      </c>
       <c r="D7" t="n">
         <v>61.88117599487305</v>
       </c>
@@ -526,6 +612,9 @@
       <c r="B8" t="n">
         <v>3926</v>
       </c>
+      <c r="C8" t="n">
+        <v>395.1025931835175</v>
+      </c>
       <c r="D8" t="n">
         <v>41.38456344604492</v>
       </c>
@@ -543,6 +632,9 @@
       <c r="B9" t="n">
         <v>9527</v>
       </c>
+      <c r="C9" t="n">
+        <v>1385.716940760612</v>
+      </c>
       <c r="D9" t="n">
         <v>158.1261596679688</v>
       </c>
@@ -560,6 +652,9 @@
       <c r="B10" t="n">
         <v>8585</v>
       </c>
+      <c r="C10" t="n">
+        <v>1327.859076142311</v>
+      </c>
       <c r="D10" t="n">
         <v>89.89502716064453</v>
       </c>
@@ -577,6 +672,9 @@
       <c r="B11" t="n">
         <v>32047</v>
       </c>
+      <c r="C11" t="n">
+        <v>1917.706836104393</v>
+      </c>
       <c r="D11" t="n">
         <v>250.63037109375</v>
       </c>
@@ -594,6 +692,9 @@
       <c r="B12" t="n">
         <v>6943</v>
       </c>
+      <c r="C12" t="n">
+        <v>941.903670668602</v>
+      </c>
       <c r="D12" t="n">
         <v>132.5770874023438</v>
       </c>
@@ -611,6 +712,9 @@
       <c r="B13" t="n">
         <v>442</v>
       </c>
+      <c r="C13" t="n">
+        <v>123.012192606926</v>
+      </c>
       <c r="D13" t="n">
         <v>11.72929573059082</v>
       </c>
@@ -628,6 +732,9 @@
       <c r="B14" t="n">
         <v>4821</v>
       </c>
+      <c r="C14" t="n">
+        <v>678.4823168516159</v>
+      </c>
       <c r="D14" t="n">
         <v>42.19388580322266</v>
       </c>
@@ -645,6 +752,9 @@
       <c r="B15" t="n">
         <v>155</v>
       </c>
+      <c r="C15" t="n">
+        <v>53.69848430156708</v>
+      </c>
       <c r="D15" t="n">
         <v>8.659038543701172</v>
       </c>
@@ -662,6 +772,9 @@
       <c r="B16" t="n">
         <v>177</v>
       </c>
+      <c r="C16" t="n">
+        <v>67.35533845424652</v>
+      </c>
       <c r="D16" t="n">
         <v>11.29310512542725</v>
       </c>
@@ -679,6 +792,9 @@
       <c r="B17" t="n">
         <v>185</v>
       </c>
+      <c r="C17" t="n">
+        <v>75.25483322143555</v>
+      </c>
       <c r="D17" t="n">
         <v>16.02050399780273</v>
       </c>
@@ -696,6 +812,9 @@
       <c r="B18" t="n">
         <v>1038</v>
       </c>
+      <c r="C18" t="n">
+        <v>226.1076455116272</v>
+      </c>
       <c r="D18" t="n">
         <v>35.20568466186523</v>
       </c>
@@ -713,6 +832,9 @@
       <c r="B19" t="n">
         <v>1450</v>
       </c>
+      <c r="C19" t="n">
+        <v>296.3919162750244</v>
+      </c>
       <c r="D19" t="n">
         <v>20.88563919067383</v>
       </c>
@@ -730,6 +852,9 @@
       <c r="B20" t="n">
         <v>1082</v>
       </c>
+      <c r="C20" t="n">
+        <v>177.622364282608</v>
+      </c>
       <c r="D20" t="n">
         <v>24.71800994873047</v>
       </c>
@@ -747,6 +872,9 @@
       <c r="B21" t="n">
         <v>1103</v>
       </c>
+      <c r="C21" t="n">
+        <v>191.3380935192108</v>
+      </c>
       <c r="D21" t="n">
         <v>20.20615196228027</v>
       </c>
@@ -764,6 +892,9 @@
       <c r="B22" t="n">
         <v>17227</v>
       </c>
+      <c r="C22" t="n">
+        <v>1566.243852138519</v>
+      </c>
       <c r="D22" t="n">
         <v>59.73926162719727</v>
       </c>
@@ -781,6 +912,9 @@
       <c r="B23" t="n">
         <v>2513</v>
       </c>
+      <c r="C23" t="n">
+        <v>455.9726504087448</v>
+      </c>
       <c r="D23" t="n">
         <v>24.87228584289551</v>
       </c>
@@ -798,6 +932,9 @@
       <c r="B24" t="n">
         <v>1103</v>
       </c>
+      <c r="C24" t="n">
+        <v>226.0071402788162</v>
+      </c>
       <c r="D24" t="n">
         <v>20.0107479095459</v>
       </c>
@@ -815,6 +952,9 @@
       <c r="B25" t="n">
         <v>2297</v>
       </c>
+      <c r="C25" t="n">
+        <v>374.2741661071777</v>
+      </c>
       <c r="D25" t="n">
         <v>40.10630416870117</v>
       </c>
@@ -832,6 +972,9 @@
       <c r="B26" t="n">
         <v>5016</v>
       </c>
+      <c r="C26" t="n">
+        <v>677.5533845424652</v>
+      </c>
       <c r="D26" t="n">
         <v>24.378173828125</v>
       </c>
@@ -849,6 +992,9 @@
       <c r="B27" t="n">
         <v>4453</v>
       </c>
+      <c r="C27" t="n">
+        <v>579.3107439279556</v>
+      </c>
       <c r="D27" t="n">
         <v>68.34024047851562</v>
       </c>
@@ -866,6 +1012,9 @@
       <c r="B28" t="n">
         <v>3227</v>
       </c>
+      <c r="C28" t="n">
+        <v>581.4112491607666</v>
+      </c>
       <c r="D28" t="n">
         <v>62.45869445800781</v>
       </c>
@@ -883,6 +1032,9 @@
       <c r="B29" t="n">
         <v>8370</v>
       </c>
+      <c r="C29" t="n">
+        <v>965.1412589550018</v>
+      </c>
       <c r="D29" t="n">
         <v>39.59403991699219</v>
       </c>
@@ -900,6 +1052,9 @@
       <c r="B30" t="n">
         <v>801</v>
       </c>
+      <c r="C30" t="n">
+        <v>163.2375882863998</v>
+      </c>
       <c r="D30" t="n">
         <v>17.12418365478516</v>
       </c>
@@ -917,6 +1072,9 @@
       <c r="B31" t="n">
         <v>1732</v>
       </c>
+      <c r="C31" t="n">
+        <v>244.8771975040436</v>
+      </c>
       <c r="D31" t="n">
         <v>34.32012557983398</v>
       </c>
@@ -934,6 +1092,9 @@
       <c r="B32" t="n">
         <v>2251</v>
       </c>
+      <c r="C32" t="n">
+        <v>479.9482651948929</v>
+      </c>
       <c r="D32" t="n">
         <v>25.66098022460938</v>
       </c>
@@ -951,6 +1112,9 @@
       <c r="B33" t="n">
         <v>2286</v>
       </c>
+      <c r="C33" t="n">
+        <v>322.7766922712326</v>
+      </c>
       <c r="D33" t="n">
         <v>44.74575424194336</v>
       </c>
@@ -968,6 +1132,9 @@
       <c r="B34" t="n">
         <v>1349</v>
       </c>
+      <c r="C34" t="n">
+        <v>284.634556889534</v>
+      </c>
       <c r="D34" t="n">
         <v>28.69829750061035</v>
       </c>
@@ -985,6 +1152,9 @@
       <c r="B35" t="n">
         <v>1543</v>
       </c>
+      <c r="C35" t="n">
+        <v>319.1198381185532</v>
+      </c>
       <c r="D35" t="n">
         <v>31.22039222717285</v>
       </c>
@@ -1002,6 +1172,9 @@
       <c r="B36" t="n">
         <v>905</v>
       </c>
+      <c r="C36" t="n">
+        <v>198.4507913589478</v>
+      </c>
       <c r="D36" t="n">
         <v>16.25936126708984</v>
       </c>
@@ -1019,6 +1192,9 @@
       <c r="B37" t="n">
         <v>5869</v>
       </c>
+      <c r="C37" t="n">
+        <v>826.7493426799774</v>
+      </c>
       <c r="D37" t="n">
         <v>57.19617080688477</v>
       </c>
@@ -1036,6 +1212,9 @@
       <c r="B38" t="n">
         <v>1139</v>
       </c>
+      <c r="C38" t="n">
+        <v>203.8650048971176</v>
+      </c>
       <c r="D38" t="n">
         <v>23.89183616638184</v>
       </c>
@@ -1053,6 +1232,9 @@
       <c r="B39" t="n">
         <v>358</v>
       </c>
+      <c r="C39" t="n">
+        <v>114.5685415267944</v>
+      </c>
       <c r="D39" t="n">
         <v>14.36987400054932</v>
       </c>
@@ -1070,6 +1252,9 @@
       <c r="B40" t="n">
         <v>1062</v>
       </c>
+      <c r="C40" t="n">
+        <v>237.0365778207779</v>
+      </c>
       <c r="D40" t="n">
         <v>23.9934196472168</v>
       </c>
@@ -1087,6 +1272,9 @@
       <c r="B41" t="n">
         <v>1283</v>
       </c>
+      <c r="C41" t="n">
+        <v>220.7939372062683</v>
+      </c>
       <c r="D41" t="n">
         <v>28.13502883911133</v>
       </c>
@@ -1104,6 +1292,9 @@
       <c r="B42" t="n">
         <v>2617</v>
       </c>
+      <c r="C42" t="n">
+        <v>470.9432128667831</v>
+      </c>
       <c r="D42" t="n">
         <v>40.091796875</v>
       </c>
@@ -1121,6 +1312,9 @@
       <c r="B43" t="n">
         <v>284</v>
       </c>
+      <c r="C43" t="n">
+        <v>96.56854152679443</v>
+      </c>
       <c r="D43" t="n">
         <v>13.07817077636719</v>
       </c>
@@ -1138,6 +1332,9 @@
       <c r="B44" t="n">
         <v>183</v>
       </c>
+      <c r="C44" t="n">
+        <v>60.87005722522736</v>
+      </c>
       <c r="D44" t="n">
         <v>10.48494243621826</v>
       </c>
@@ -1155,6 +1352,9 @@
       <c r="B45" t="n">
         <v>2596</v>
       </c>
+      <c r="C45" t="n">
+        <v>495.9137753248215</v>
+      </c>
       <c r="D45" t="n">
         <v>46.85123825073242</v>
       </c>
@@ -1172,6 +1372,9 @@
       <c r="B46" t="n">
         <v>330</v>
       </c>
+      <c r="C46" t="n">
+        <v>109.6396092176437</v>
+      </c>
       <c r="D46" t="n">
         <v>16.2438793182373</v>
       </c>
@@ -1189,6 +1392,9 @@
       <c r="B47" t="n">
         <v>1500</v>
       </c>
+      <c r="C47" t="n">
+        <v>276.1492756605148</v>
+      </c>
       <c r="D47" t="n">
         <v>23.49885940551758</v>
       </c>
@@ -1206,6 +1412,9 @@
       <c r="B48" t="n">
         <v>846</v>
       </c>
+      <c r="C48" t="n">
+        <v>217.0365778207779</v>
+      </c>
       <c r="D48" t="n">
         <v>23.67838096618652</v>
       </c>
@@ -1223,6 +1432,9 @@
       <c r="B49" t="n">
         <v>106</v>
       </c>
+      <c r="C49" t="n">
+        <v>58.18376553058624</v>
+      </c>
       <c r="D49" t="n">
         <v>10.48785877227783</v>
       </c>
@@ -1240,6 +1452,9 @@
       <c r="B50" t="n">
         <v>3046</v>
       </c>
+      <c r="C50" t="n">
+        <v>355.64674949646</v>
+      </c>
       <c r="D50" t="n">
         <v>43.63053131103516</v>
       </c>
@@ -1257,6 +1472,9 @@
       <c r="B51" t="n">
         <v>816</v>
       </c>
+      <c r="C51" t="n">
+        <v>143.923879981041</v>
+      </c>
       <c r="D51" t="n">
         <v>22.6925048828125</v>
       </c>
@@ -1274,6 +1492,9 @@
       <c r="B52" t="n">
         <v>3914</v>
       </c>
+      <c r="C52" t="n">
+        <v>475.2863587141037</v>
+      </c>
       <c r="D52" t="n">
         <v>39.98586273193359</v>
       </c>
@@ -1291,6 +1512,9 @@
       <c r="B53" t="n">
         <v>3215</v>
       </c>
+      <c r="C53" t="n">
+        <v>600.180801153183</v>
+      </c>
       <c r="D53" t="n">
         <v>87.43578338623047</v>
       </c>
@@ -1308,6 +1532,9 @@
       <c r="B54" t="n">
         <v>4213</v>
       </c>
+      <c r="C54" t="n">
+        <v>820.5483322143555</v>
+      </c>
       <c r="D54" t="n">
         <v>65.1083984375</v>
       </c>
@@ -1325,6 +1552,9 @@
       <c r="B55" t="n">
         <v>197</v>
       </c>
+      <c r="C55" t="n">
+        <v>71.84061968326569</v>
+      </c>
       <c r="D55" t="n">
         <v>12.03555488586426</v>
       </c>
@@ -1342,6 +1572,9 @@
       <c r="B56" t="n">
         <v>585</v>
       </c>
+      <c r="C56" t="n">
+        <v>125.2964633703232</v>
+      </c>
       <c r="D56" t="n">
         <v>16.63277244567871</v>
       </c>
@@ -1359,6 +1592,9 @@
       <c r="B57" t="n">
         <v>2012</v>
       </c>
+      <c r="C57" t="n">
+        <v>383.6883796453476</v>
+      </c>
       <c r="D57" t="n">
         <v>21.66689682006836</v>
       </c>
@@ -1376,6 +1612,9 @@
       <c r="B58" t="n">
         <v>1340</v>
       </c>
+      <c r="C58" t="n">
+        <v>243.7056245803833</v>
+      </c>
       <c r="D58" t="n">
         <v>36.03184509277344</v>
       </c>
@@ -1393,6 +1632,9 @@
       <c r="B59" t="n">
         <v>1741</v>
       </c>
+      <c r="C59" t="n">
+        <v>296.0487704277039</v>
+      </c>
       <c r="D59" t="n">
         <v>25.61396026611328</v>
       </c>
@@ -1410,6 +1652,9 @@
       <c r="B60" t="n">
         <v>1924</v>
       </c>
+      <c r="C60" t="n">
+        <v>297.3624787330627</v>
+      </c>
       <c r="D60" t="n">
         <v>51.06063079833984</v>
       </c>
@@ -1427,6 +1672,9 @@
       <c r="B61" t="n">
         <v>9926</v>
       </c>
+      <c r="C61" t="n">
+        <v>1068.864128470421</v>
+      </c>
       <c r="D61" t="n">
         <v>40.764404296875</v>
       </c>
@@ -1444,6 +1692,9 @@
       <c r="B62" t="n">
         <v>3286</v>
       </c>
+      <c r="C62" t="n">
+        <v>556.7422024011612</v>
+      </c>
       <c r="D62" t="n">
         <v>53.64373779296875</v>
       </c>
@@ -1461,6 +1712,9 @@
       <c r="B63" t="n">
         <v>3309</v>
       </c>
+      <c r="C63" t="n">
+        <v>482.0142805576324</v>
+      </c>
       <c r="D63" t="n">
         <v>22.71298980712891</v>
       </c>
@@ -1478,6 +1732,9 @@
       <c r="B64" t="n">
         <v>1556</v>
       </c>
+      <c r="C64" t="n">
+        <v>237.9066350460052</v>
+      </c>
       <c r="D64" t="n">
         <v>30.73247528076172</v>
       </c>
@@ -1495,6 +1752,9 @@
       <c r="B65" t="n">
         <v>4365</v>
       </c>
+      <c r="C65" t="n">
+        <v>659.5950146913528</v>
+      </c>
       <c r="D65" t="n">
         <v>48.53352737426758</v>
       </c>
@@ -1512,6 +1772,9 @@
       <c r="B66" t="n">
         <v>2037</v>
       </c>
+      <c r="C66" t="n">
+        <v>329.2619735002518</v>
+      </c>
       <c r="D66" t="n">
         <v>25.87686538696289</v>
       </c>
@@ -1529,6 +1792,9 @@
       <c r="B67" t="n">
         <v>1866</v>
       </c>
+      <c r="C67" t="n">
+        <v>334.1320307254791</v>
+      </c>
       <c r="D67" t="n">
         <v>35.26464080810547</v>
       </c>
@@ -1546,6 +1812,9 @@
       <c r="B68" t="n">
         <v>1477</v>
       </c>
+      <c r="C68" t="n">
+        <v>281.2203433513641</v>
+      </c>
       <c r="D68" t="n">
         <v>33.45753479003906</v>
       </c>
@@ -1563,6 +1832,9 @@
       <c r="B69" t="n">
         <v>3058</v>
       </c>
+      <c r="C69" t="n">
+        <v>429.7888848781586</v>
+      </c>
       <c r="D69" t="n">
         <v>56.96344757080078</v>
       </c>
@@ -1580,6 +1852,9 @@
       <c r="B70" t="n">
         <v>1203</v>
       </c>
+      <c r="C70" t="n">
+        <v>212.3502861261368</v>
+      </c>
       <c r="D70" t="n">
         <v>22.76264762878418</v>
       </c>
@@ -1597,6 +1872,9 @@
       <c r="B71" t="n">
         <v>2523</v>
       </c>
+      <c r="C71" t="n">
+        <v>458.6000670194626</v>
+      </c>
       <c r="D71" t="n">
         <v>27.21772766113281</v>
       </c>
@@ -1614,6 +1892,9 @@
       <c r="B72" t="n">
         <v>4300</v>
       </c>
+      <c r="C72" t="n">
+        <v>508.8843377828598</v>
+      </c>
       <c r="D72" t="n">
         <v>63.37882232666016</v>
       </c>
@@ -1631,6 +1912,9 @@
       <c r="B73" t="n">
         <v>1088</v>
       </c>
+      <c r="C73" t="n">
+        <v>253.8061298131943</v>
+      </c>
       <c r="D73" t="n">
         <v>39.57927703857422</v>
       </c>
@@ -1648,6 +1932,9 @@
       <c r="B74" t="n">
         <v>815</v>
       </c>
+      <c r="C74" t="n">
+        <v>156.2670258283615</v>
+      </c>
       <c r="D74" t="n">
         <v>24.20571136474609</v>
       </c>
@@ -1665,6 +1952,9 @@
       <c r="B75" t="n">
         <v>1584</v>
       </c>
+      <c r="C75" t="n">
+        <v>293.9482651948929</v>
+      </c>
       <c r="D75" t="n">
         <v>32.7485466003418</v>
       </c>
@@ -1682,6 +1972,9 @@
       <c r="B76" t="n">
         <v>1566</v>
       </c>
+      <c r="C76" t="n">
+        <v>219.0365778207779</v>
+      </c>
       <c r="D76" t="n">
         <v>30.36114883422852</v>
       </c>
@@ -1699,6 +1992,9 @@
       <c r="B77" t="n">
         <v>1087</v>
       </c>
+      <c r="C77" t="n">
+        <v>201.9655101299286</v>
+      </c>
       <c r="D77" t="n">
         <v>39.59518432617188</v>
       </c>
@@ -1716,6 +2012,9 @@
       <c r="B78" t="n">
         <v>996</v>
       </c>
+      <c r="C78" t="n">
+        <v>182.4091612100601</v>
+      </c>
       <c r="D78" t="n">
         <v>21.43050193786621</v>
       </c>
@@ -1733,6 +2032,9 @@
       <c r="B79" t="n">
         <v>1943</v>
       </c>
+      <c r="C79" t="n">
+        <v>260.1492756605148</v>
+      </c>
       <c r="D79" t="n">
         <v>46.26980972290039</v>
       </c>
@@ -1750,6 +2052,9 @@
       <c r="B80" t="n">
         <v>2974</v>
       </c>
+      <c r="C80" t="n">
+        <v>532.3401814699173</v>
+      </c>
       <c r="D80" t="n">
         <v>90.97003936767578</v>
       </c>
@@ -1767,6 +2072,9 @@
       <c r="B81" t="n">
         <v>7793</v>
       </c>
+      <c r="C81" t="n">
+        <v>865.5432798862457</v>
+      </c>
       <c r="D81" t="n">
         <v>42.23497772216797</v>
       </c>
@@ -1784,6 +2092,9 @@
       <c r="B82" t="n">
         <v>14180</v>
       </c>
+      <c r="C82" t="n">
+        <v>1108.454967260361</v>
+      </c>
       <c r="D82" t="n">
         <v>84.16510009765625</v>
       </c>
@@ -1801,6 +2112,9 @@
       <c r="B83" t="n">
         <v>1305</v>
       </c>
+      <c r="C83" t="n">
+        <v>240.4924215078354</v>
+      </c>
       <c r="D83" t="n">
         <v>30.35739707946777</v>
       </c>
@@ -1818,6 +2132,9 @@
       <c r="B84" t="n">
         <v>3523</v>
       </c>
+      <c r="C84" t="n">
+        <v>503.7716399431229</v>
+      </c>
       <c r="D84" t="n">
         <v>47.62603759765625</v>
       </c>
@@ -1835,6 +2152,9 @@
       <c r="B85" t="n">
         <v>3669</v>
       </c>
+      <c r="C85" t="n">
+        <v>598.0975408554077</v>
+      </c>
       <c r="D85" t="n">
         <v>79.99685668945312</v>
       </c>
@@ -1852,6 +2172,9 @@
       <c r="B86" t="n">
         <v>2578</v>
       </c>
+      <c r="C86" t="n">
+        <v>381.8893901109695</v>
+      </c>
       <c r="D86" t="n">
         <v>30.48514747619629</v>
       </c>
@@ -1869,6 +2192,9 @@
       <c r="B87" t="n">
         <v>5067</v>
       </c>
+      <c r="C87" t="n">
+        <v>703.1513636112213</v>
+      </c>
       <c r="D87" t="n">
         <v>61.99735641479492</v>
       </c>
@@ -1886,6 +2212,9 @@
       <c r="B88" t="n">
         <v>1231</v>
       </c>
+      <c r="C88" t="n">
+        <v>209.82337474823</v>
+      </c>
       <c r="D88" t="n">
         <v>21.10899925231934</v>
       </c>
@@ -1903,6 +2232,9 @@
       <c r="B89" t="n">
         <v>3655</v>
       </c>
+      <c r="C89" t="n">
+        <v>553.9137753248215</v>
+      </c>
       <c r="D89" t="n">
         <v>33.60180282592773</v>
       </c>
@@ -1920,6 +2252,9 @@
       <c r="B90" t="n">
         <v>6448</v>
       </c>
+      <c r="C90" t="n">
+        <v>693.4945094585419</v>
+      </c>
       <c r="D90" t="n">
         <v>57.85193634033203</v>
       </c>
@@ -1937,6 +2272,9 @@
       <c r="B91" t="n">
         <v>1835</v>
       </c>
+      <c r="C91" t="n">
+        <v>300.2914110422134</v>
+      </c>
       <c r="D91" t="n">
         <v>25.94698715209961</v>
       </c>
@@ -1954,6 +2292,9 @@
       <c r="B92" t="n">
         <v>1742</v>
       </c>
+      <c r="C92" t="n">
+        <v>248.5929267406464</v>
+      </c>
       <c r="D92" t="n">
         <v>40.41944122314453</v>
       </c>
@@ -1971,6 +2312,9 @@
       <c r="B93" t="n">
         <v>1115</v>
       </c>
+      <c r="C93" t="n">
+        <v>207.8650048971176</v>
+      </c>
       <c r="D93" t="n">
         <v>21.03208541870117</v>
       </c>
@@ -1988,6 +2332,9 @@
       <c r="B94" t="n">
         <v>1196</v>
       </c>
+      <c r="C94" t="n">
+        <v>286.3919162750244</v>
+      </c>
       <c r="D94" t="n">
         <v>30.26118850708008</v>
       </c>
@@ -2005,6 +2352,9 @@
       <c r="B95" t="n">
         <v>3905</v>
       </c>
+      <c r="C95" t="n">
+        <v>693.2518688440323</v>
+      </c>
       <c r="D95" t="n">
         <v>47.70805358886719</v>
       </c>
@@ -2022,6 +2372,9 @@
       <c r="B96" t="n">
         <v>829</v>
       </c>
+      <c r="C96" t="n">
+        <v>145.5807341337204</v>
+      </c>
       <c r="D96" t="n">
         <v>20.09732818603516</v>
       </c>
@@ -2039,6 +2392,9 @@
       <c r="B97" t="n">
         <v>2026</v>
       </c>
+      <c r="C97" t="n">
+        <v>299.0193328857422</v>
+      </c>
       <c r="D97" t="n">
         <v>38.27668762207031</v>
       </c>
@@ -2056,6 +2412,9 @@
       <c r="B98" t="n">
         <v>7171</v>
       </c>
+      <c r="C98" t="n">
+        <v>866.0874361991882</v>
+      </c>
       <c r="D98" t="n">
         <v>92.67327880859375</v>
       </c>
@@ -2073,6 +2432,9 @@
       <c r="B99" t="n">
         <v>2582</v>
       </c>
+      <c r="C99" t="n">
+        <v>382.2325359582901</v>
+      </c>
       <c r="D99" t="n">
         <v>38.28573608398438</v>
       </c>
@@ -2090,6 +2452,9 @@
       <c r="B100" t="n">
         <v>3697</v>
       </c>
+      <c r="C100" t="n">
+        <v>586.2396762371063</v>
+      </c>
       <c r="D100" t="n">
         <v>84.52004241943359</v>
       </c>
@@ -2107,6 +2472,9 @@
       <c r="B101" t="n">
         <v>2169</v>
       </c>
+      <c r="C101" t="n">
+        <v>311.9482651948929</v>
+      </c>
       <c r="D101" t="n">
         <v>27.87837409973145</v>
       </c>
@@ -2124,6 +2492,9 @@
       <c r="B102" t="n">
         <v>3970</v>
       </c>
+      <c r="C102" t="n">
+        <v>456.7594473361969</v>
+      </c>
       <c r="D102" t="n">
         <v>34.57746505737305</v>
       </c>
@@ -2141,6 +2512,9 @@
       <c r="B103" t="n">
         <v>1886</v>
       </c>
+      <c r="C103" t="n">
+        <v>384.4507913589478</v>
+      </c>
       <c r="D103" t="n">
         <v>16.29279518127441</v>
       </c>
@@ -2158,6 +2532,9 @@
       <c r="B104" t="n">
         <v>967</v>
       </c>
+      <c r="C104" t="n">
+        <v>194.4507913589478</v>
+      </c>
       <c r="D104" t="n">
         <v>26.28319549560547</v>
       </c>
@@ -2175,6 +2552,9 @@
       <c r="B105" t="n">
         <v>3619</v>
       </c>
+      <c r="C105" t="n">
+        <v>499.0437180995941</v>
+      </c>
       <c r="D105" t="n">
         <v>53.97177886962891</v>
       </c>
@@ -2192,6 +2572,9 @@
       <c r="B106" t="n">
         <v>902</v>
       </c>
+      <c r="C106" t="n">
+        <v>174.7523070573807</v>
+      </c>
       <c r="D106" t="n">
         <v>27.29047012329102</v>
       </c>
@@ -2209,6 +2592,9 @@
       <c r="B107" t="n">
         <v>3313</v>
       </c>
+      <c r="C107" t="n">
+        <v>530.3990565538406</v>
+      </c>
       <c r="D107" t="n">
         <v>48.37883377075195</v>
       </c>
@@ -2226,6 +2612,9 @@
       <c r="B108" t="n">
         <v>4070</v>
       </c>
+      <c r="C108" t="n">
+        <v>650.9675980806351</v>
+      </c>
       <c r="D108" t="n">
         <v>99.39860534667969</v>
       </c>
@@ -2243,6 +2632,9 @@
       <c r="B109" t="n">
         <v>1515</v>
       </c>
+      <c r="C109" t="n">
+        <v>281.5634891986847</v>
+      </c>
       <c r="D109" t="n">
         <v>30.98445510864258</v>
       </c>
@@ -2260,6 +2652,9 @@
       <c r="B110" t="n">
         <v>2446</v>
       </c>
+      <c r="C110" t="n">
+        <v>413.8721451759338</v>
+      </c>
       <c r="D110" t="n">
         <v>47.82083892822266</v>
       </c>
@@ -2277,6 +2672,9 @@
       <c r="B111" t="n">
         <v>1606</v>
       </c>
+      <c r="C111" t="n">
+        <v>56.87005722522736</v>
+      </c>
       <c r="D111" t="n">
         <v>11.89911937713623</v>
       </c>
@@ -2294,6 +2692,9 @@
       <c r="B112" t="n">
         <v>1548</v>
       </c>
+      <c r="C112" t="n">
+        <v>220.1665205955505</v>
+      </c>
       <c r="D112" t="n">
         <v>39.13174438476562</v>
       </c>
@@ -2311,6 +2712,9 @@
       <c r="B113" t="n">
         <v>1725</v>
       </c>
+      <c r="C113" t="n">
+        <v>243.7644996643066</v>
+      </c>
       <c r="D113" t="n">
         <v>33.96202087402344</v>
       </c>
@@ -2328,6 +2732,9 @@
       <c r="B114" t="n">
         <v>803</v>
       </c>
+      <c r="C114" t="n">
+        <v>171.82337474823</v>
+      </c>
       <c r="D114" t="n">
         <v>29.44475173950195</v>
       </c>
@@ -2345,6 +2752,9 @@
       <c r="B115" t="n">
         <v>1487</v>
       </c>
+      <c r="C115" t="n">
+        <v>263.4213538169861</v>
+      </c>
       <c r="D115" t="n">
         <v>32.76470947265625</v>
       </c>
@@ -2362,6 +2772,9 @@
       <c r="B116" t="n">
         <v>1259</v>
       </c>
+      <c r="C116" t="n">
+        <v>203.4802289009094</v>
+      </c>
       <c r="D116" t="n">
         <v>39.56264877319336</v>
       </c>
@@ -2379,6 +2792,9 @@
       <c r="B117" t="n">
         <v>394</v>
       </c>
+      <c r="C117" t="n">
+        <v>123.9827550649643</v>
+      </c>
       <c r="D117" t="n">
         <v>13.56609439849854</v>
       </c>
@@ -2396,6 +2812,9 @@
       <c r="B118" t="n">
         <v>279</v>
       </c>
+      <c r="C118" t="n">
+        <v>74.04163014888763</v>
+      </c>
       <c r="D118" t="n">
         <v>17.45665740966797</v>
       </c>
@@ -2412,6 +2831,9 @@
       </c>
       <c r="B119" t="n">
         <v>966</v>
+      </c>
+      <c r="C119" t="n">
+        <v>160.0243852138519</v>
       </c>
       <c r="D119" t="n">
         <v>26.44148445129395</v>
